--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H2">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I2">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J2">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>74.96331764092616</v>
+        <v>195.4571735233951</v>
       </c>
       <c r="R2">
-        <v>74.96331764092616</v>
+        <v>1759.114561710556</v>
       </c>
       <c r="S2">
-        <v>0.02136704856843459</v>
+        <v>0.04660462485702831</v>
       </c>
       <c r="T2">
-        <v>0.02136704856843459</v>
+        <v>0.04660462485702831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H3">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I3">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J3">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>54.64288388636148</v>
+        <v>116.556860479634</v>
       </c>
       <c r="R3">
-        <v>54.64288388636148</v>
+        <v>1049.011744316706</v>
       </c>
       <c r="S3">
-        <v>0.01557504644487333</v>
+        <v>0.02779170832794296</v>
       </c>
       <c r="T3">
-        <v>0.01557504644487333</v>
+        <v>0.02779170832794295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H4">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I4">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J4">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>55.14289316620857</v>
+        <v>121.5032019189193</v>
       </c>
       <c r="R4">
-        <v>55.14289316620857</v>
+        <v>1093.528817270274</v>
       </c>
       <c r="S4">
-        <v>0.01571756578504362</v>
+        <v>0.02897110933450195</v>
       </c>
       <c r="T4">
-        <v>0.01571756578504362</v>
+        <v>0.02897110933450193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H5">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I5">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J5">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>19.34500993443312</v>
+        <v>42.12505704695223</v>
       </c>
       <c r="R5">
-        <v>19.34500993443312</v>
+        <v>379.12551342257</v>
       </c>
       <c r="S5">
-        <v>0.005513973765219488</v>
+        <v>0.01004425903313873</v>
       </c>
       <c r="T5">
-        <v>0.005513973765219488</v>
+        <v>0.01004425903313873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H6">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I6">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J6">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>848.0428467682503</v>
+        <v>1045.995327200422</v>
       </c>
       <c r="R6">
-        <v>848.0428467682503</v>
+        <v>9413.957944803797</v>
       </c>
       <c r="S6">
-        <v>0.2417205276560231</v>
+        <v>0.2494061432876771</v>
       </c>
       <c r="T6">
-        <v>0.2417205276560231</v>
+        <v>0.249406143287677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H7">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I7">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J7">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>618.1624328392575</v>
+        <v>623.757773721494</v>
       </c>
       <c r="R7">
-        <v>618.1624328392575</v>
+        <v>5613.819963493446</v>
       </c>
       <c r="S7">
-        <v>0.1761969339314171</v>
+        <v>0.1487282176546253</v>
       </c>
       <c r="T7">
-        <v>0.1761969339314171</v>
+        <v>0.1487282176546253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H8">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I8">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J8">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>623.8189233260201</v>
+        <v>650.2282784308593</v>
       </c>
       <c r="R8">
-        <v>623.8189233260201</v>
+        <v>5852.054505877733</v>
       </c>
       <c r="S8">
-        <v>0.1778092225915385</v>
+        <v>0.1550398199331087</v>
       </c>
       <c r="T8">
-        <v>0.1778092225915385</v>
+        <v>0.1550398199331086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H9">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I9">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J9">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>218.8456676122381</v>
+        <v>225.4335926119856</v>
       </c>
       <c r="R9">
-        <v>218.8456676122381</v>
+        <v>2028.90233350787</v>
       </c>
       <c r="S9">
-        <v>0.06237832257185583</v>
+        <v>0.05375217406689962</v>
       </c>
       <c r="T9">
-        <v>0.06237832257185583</v>
+        <v>0.0537521740668996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H10">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I10">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J10">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>50.73912340397221</v>
+        <v>67.01125485200001</v>
       </c>
       <c r="R10">
-        <v>50.73912340397221</v>
+        <v>603.101293668</v>
       </c>
       <c r="S10">
-        <v>0.01446234436001778</v>
+        <v>0.01597810066153632</v>
       </c>
       <c r="T10">
-        <v>0.01446234436001778</v>
+        <v>0.01597810066153632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H11">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I11">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J11">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>36.98518309901159</v>
+        <v>39.960781902</v>
       </c>
       <c r="R11">
-        <v>36.98518309901159</v>
+        <v>359.647037118</v>
       </c>
       <c r="S11">
-        <v>0.010542012126176</v>
+        <v>0.009528211300534965</v>
       </c>
       <c r="T11">
-        <v>0.010542012126176</v>
+        <v>0.009528211300534961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H12">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I12">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J12">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>37.32361572648433</v>
+        <v>41.656603758</v>
       </c>
       <c r="R12">
-        <v>37.32361572648433</v>
+        <v>374.909433822</v>
       </c>
       <c r="S12">
-        <v>0.01063847672534157</v>
+        <v>0.009932561470951042</v>
       </c>
       <c r="T12">
-        <v>0.01063847672534157</v>
+        <v>0.009932561470951038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H13">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I13">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J13">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N13">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q13">
-        <v>13.09372206571598</v>
+        <v>14.44230919</v>
       </c>
       <c r="R13">
-        <v>13.09372206571598</v>
+        <v>129.98078271</v>
       </c>
       <c r="S13">
-        <v>0.003732147990832711</v>
+        <v>0.003443610637235573</v>
       </c>
       <c r="T13">
-        <v>0.003732147990832711</v>
+        <v>0.003443610637235572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H14">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I14">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J14">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N14">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q14">
-        <v>314.8679852497144</v>
+        <v>414.9666387095742</v>
       </c>
       <c r="R14">
-        <v>314.8679852497144</v>
+        <v>3734.699748386168</v>
       </c>
       <c r="S14">
-        <v>0.08974788930369801</v>
+        <v>0.09894425554520209</v>
       </c>
       <c r="T14">
-        <v>0.08974788930369801</v>
+        <v>0.09894425554520207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H15">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I15">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J15">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N15">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q15">
-        <v>229.516186035762</v>
+        <v>247.456809795652</v>
       </c>
       <c r="R15">
-        <v>229.516186035762</v>
+        <v>2227.111288160868</v>
       </c>
       <c r="S15">
-        <v>0.06541977661339007</v>
+        <v>0.05900336928520549</v>
       </c>
       <c r="T15">
-        <v>0.06541977661339007</v>
+        <v>0.05900336928520548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H16">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I16">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J16">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N16">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q16">
-        <v>231.6163720935047</v>
+        <v>257.9581725441747</v>
       </c>
       <c r="R16">
-        <v>231.6163720935047</v>
+        <v>2321.623552897572</v>
       </c>
       <c r="S16">
-        <v>0.06601839976549613</v>
+        <v>0.06150730435476635</v>
       </c>
       <c r="T16">
-        <v>0.06601839976549613</v>
+        <v>0.06150730435476634</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H17">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I17">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J17">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N17">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q17">
-        <v>81.25473223940163</v>
+        <v>89.43387962238445</v>
       </c>
       <c r="R17">
-        <v>81.25473223940163</v>
+        <v>804.9049166014601</v>
       </c>
       <c r="S17">
-        <v>0.02316031180064234</v>
+        <v>0.02132453024964554</v>
       </c>
       <c r="T17">
-        <v>0.02316031180064234</v>
+        <v>0.02132453024964554</v>
       </c>
     </row>
   </sheetData>
